--- a/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
+++ b/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SoundConfig" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>1、普通背景音乐
-2、战斗背景音乐
-3、特效音</t>
+          <t>1、背景音乐
+2、特效音</t>
         </r>
       </text>
     </comment>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>索引</t>
   </si>
@@ -95,73 +94,106 @@
     <t>Detailed</t>
   </si>
   <si>
-    <t>Sounds/BGMs/</t>
-  </si>
-  <si>
-    <t>No More Magic</t>
+    <t>Sounds/BGM/</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - A Minor Distraction</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>Peaceful Place</t>
-  </si>
-  <si>
-    <t>Sadness</t>
-  </si>
-  <si>
-    <t>Song18</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>The_Fall_of_Arcana_(New_Era_Version)</t>
-  </si>
-  <si>
-    <t>The_field_of_dreams</t>
-  </si>
-  <si>
-    <t>World Map</t>
-  </si>
-  <si>
-    <t>Sounds/BattleBGMs/</t>
-  </si>
-  <si>
-    <t>Boss_battle_#2_metal_opening</t>
-  </si>
-  <si>
-    <t>Fight_looped</t>
-  </si>
-  <si>
-    <t>Orbital_Colossus</t>
-  </si>
-  <si>
-    <t>Sounds/SoundEffects/</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Click2</t>
-  </si>
-  <si>
-    <t>Click3</t>
-  </si>
-  <si>
-    <t>Click4</t>
-  </si>
-  <si>
-    <t>Click5</t>
-  </si>
-  <si>
-    <t>Click6</t>
-  </si>
-  <si>
-    <t>Pop</t>
+    <t>JDSherbert - Minigame Music Pack - Beach Vibes</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Blackjack</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Corrupted Circuitry</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Digital Waves</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Electric Eel Fishing</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Refreshing Dawn</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Smooth Driving</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Streetlights</t>
+  </si>
+  <si>
+    <t>JDSherbert - Minigame Music Pack - Temple Puzzle</t>
+  </si>
+  <si>
+    <t>Sounds/Effect/UI</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Cancel - 1</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Cancel - 2</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Cursor - 1</t>
+  </si>
+  <si>
+    <t>光标</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Cursor - 2</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Cursor - 3</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Cursor - 4</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Cursor - 5</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Error - 1</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Popup Close - 1</t>
+  </si>
+  <si>
+    <t>弹出关闭</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Popup Open - 1</t>
+  </si>
+  <si>
+    <t>弹出打开</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Select - 1</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Select - 2</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Swipe - 1</t>
+  </si>
+  <si>
+    <t>滑动</t>
+  </si>
+  <si>
+    <t>JDSherbert - Ultimate UI SFX Pack - Swipe - 2</t>
   </si>
 </sst>
 </file>
@@ -1137,19 +1169,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15.2583333333333" customWidth="1"/>
     <col min="3" max="3" width="26.35" customWidth="1"/>
-    <col min="4" max="4" width="43.1416666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.2583333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.5333333333333" customWidth="1"/>
+    <col min="4" max="4" width="54.225" customWidth="1"/>
+    <col min="5" max="5" width="14.6416666666667" customWidth="1"/>
+    <col min="6" max="6" width="20.4333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1377,16 +1409,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>110009</v>
+        <v>100009</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1397,16 +1429,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>110010</v>
+        <v>100010</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1417,10 +1449,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>110011</v>
+        <v>300001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1429,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1437,19 +1469,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>120012</v>
+        <v>300002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1457,19 +1489,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>120013</v>
+        <v>300003</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1477,19 +1509,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>120014</v>
+        <v>300004</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1497,19 +1529,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>120015</v>
+        <v>300005</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1517,19 +1549,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>120016</v>
+        <v>300006</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1537,19 +1569,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>120017</v>
+        <v>300007</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1557,19 +1589,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>120018</v>
+        <v>300008</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1577,19 +1609,119 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>120019</v>
+        <v>300009</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>300010</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>300011</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>300012</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>300013</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300014</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
+++ b/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
@@ -130,7 +130,7 @@
     <t>JDSherbert - Minigame Music Pack - Temple Puzzle</t>
   </si>
   <si>
-    <t>Sounds/Effect/UI</t>
+    <t>Sounds/SFX/UI</t>
   </si>
   <si>
     <t>JDSherbert - Ultimate UI SFX Pack - Cancel - 1</t>
@@ -1171,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
+++ b/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SoundConfig" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>JDSherbert - Minigame Music Pack - Temple Puzzle</t>
   </si>
   <si>
-    <t>Sounds/SFX/UI</t>
+    <t>Sounds/SFX/UI/</t>
   </si>
   <si>
     <t>JDSherbert - Ultimate UI SFX Pack - Cancel - 1</t>
@@ -1171,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
+++ b/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/SoundConfig.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>索引</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>JDSherbert - Ultimate UI SFX Pack - Swipe - 2</t>
+  </si>
+  <si>
+    <t>RPG3_FireMagicMisc_AttackMissed03</t>
+  </si>
+  <si>
+    <t>火魔法 攻击未命中 03</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1724,6 +1730,26 @@
         <v>46</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>300015</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
